--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value465.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value465.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194892602749512</v>
+        <v>0.8725891709327698</v>
       </c>
       <c r="B1">
-        <v>1.782487472846332</v>
+        <v>1.347840309143066</v>
       </c>
       <c r="C1">
-        <v>3.679484501416522</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.396741043169188</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.669124982517447</v>
+        <v>1.48844039440155</v>
       </c>
     </row>
   </sheetData>
